--- a/medicine/Enfance/Kate_Saunders/Kate_Saunders.xlsx
+++ b/medicine/Enfance/Kate_Saunders/Kate_Saunders.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kate Saunders, née le 7 août 1960 et morte le 21 avril 2023[1], est une romancière, actrice et journaliste anglaise.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kate Saunders, née le 7 août 1960 et morte le 21 avril 2023, est une romancière, actrice et journaliste anglaise.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fille de l'avocat Basil Saunders et de son épouse journaliste Betty (née Smith), Kate Saunders a travaillé pour des journaux et magazines au Royaume-Uni, dont les plus importants sont The Sunday Times, The Sunday Express, The Daily Telegraph, She Magazine et Cosmopolitan[2]. Elle a également été une contributrice régulière à la radio et à la télévision, avec des apparitions sur la BBC Radio 4. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fille de l'avocat Basil Saunders et de son épouse journaliste Betty (née Smith), Kate Saunders a travaillé pour des journaux et magazines au Royaume-Uni, dont les plus importants sont The Sunday Times, The Sunday Express, The Daily Telegraph, She Magazine et Cosmopolitan. Elle a également été une contributrice régulière à la radio et à la télévision, avec des apparitions sur la BBC Radio 4. 
 Elle a écrit plusieurs livres pour enfants et pour adultes. 
 </t>
         </is>
@@ -545,51 +559,126 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Univers Five Children
-(en) Five Children on the Western Front, 2014
-Série Les Sorcières du beffroi
-Les Bas-rouges voient rouge, Nathan, 2001 ((en) A Spell of Witches, 1999)
+          <t>Univers Five Children</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(en) Five Children on the Western Front, 2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Kate_Saunders</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kate_Saunders</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série Les Sorcières du beffroi</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les Bas-rouges voient rouge, Nathan, 2001 ((en) A Spell of Witches, 1999)
 Le Chat mystérieux, Nathan, 2001 ((en) Mendax the Mystery Cat, 1999)
 Les Bas-rouges se bougent, Nathan, 2001 ((en) Red Stocking Rescue, 1999)
 Panique ! Chapeau magique !, Nathan, 2001 ((en) Power Hat Panic, 2000)
 Sorcière es-tu là ?, Nathan, 2002 ((en) Witch You Were Here, 2000)
-Les Balais de l'espace, Nathan, 2002 ((en) Broomsticks in Space, 2000)
-Romans indépendants
-(en) The Little Secret, 2009
+Les Balais de l'espace, Nathan, 2002 ((en) Broomsticks in Space, 2000)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Kate_Saunders</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kate_Saunders</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(en) The Little Secret, 2009
 (en) Beswitched, 2010
 (en) Magicalamity, 2011
 (en) The Whizz Pop Chocolate Shop, 2012</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Kate_Saunders</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Kate_Saunders</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Finaliste Médaille Carnegie 2016[3] pour Five Children on the Western Front 
-Finaliste Médaille Carnegie 2019[4] pour The Land of Neverendings</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Finaliste Médaille Carnegie 2016 pour Five Children on the Western Front 
+Finaliste Médaille Carnegie 2019 pour The Land of Neverendings</t>
         </is>
       </c>
     </row>
